--- a/experimental_results/majority_NW_finished.xlsx
+++ b/experimental_results/majority_NW_finished.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B5EA4-5829-4489-93DB-3416D6548229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3223FA1A-AE7B-4F11-9000-F82291966206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DBFB358-8B9E-49E9-956B-A52546E4BC79}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t xml:space="preserve"> A</t>
   </si>
   <si>
-    <t>dif</t>
-  </si>
-  <si>
     <t>Area(diff)</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>|N|(diff)</t>
+  </si>
+  <si>
+    <t>MAJ DN</t>
   </si>
 </sst>
 </file>
@@ -256,6 +256,1923 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>348040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3722000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16029312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2475088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31990221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45928186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1206975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2310924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9645368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06C5-47E2-875B-3953FACAD7D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="742017824"/>
+        <c:axId val="742018656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="742017824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742018656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="742018656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742017824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1510875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3108966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4538956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>284715</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>882640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-367C-434D-A7AF-2BF326F81E9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="459822176"/>
+        <c:axId val="436907584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="459822176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436907584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="436907584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459822176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CC2B04-60FF-1042-8279-03200EE42F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1978223C-76C3-B97A-1738-D595A1241512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,7 +2475,7 @@
   <dimension ref="B1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K2" activeCellId="1" sqref="F2:F13 K2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +2521,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -680,16 +2597,16 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>37</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
       </c>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -1678,5 +3595,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>